--- a/check_Case (1).xlsx
+++ b/check_Case (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus22-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C4F9D8-1080-4012-B44A-C727FB0ADDCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FBBDF2-7238-4B1B-8962-0CA4225B1DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:J269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H267" sqref="H267"/>
+      <selection activeCell="I271" sqref="I271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
